--- a/audio/dialogue.xlsx
+++ b/audio/dialogue.xlsx
@@ -124,7 +124,7 @@
     <t xml:space="preserve">Nickdeath</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">Nick was struck down, it was a hit put out by Microsoft.</t>
   </si>
   <si>
     <t xml:space="preserve">Nickwin</t>
@@ -140,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -163,9 +163,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val=""/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -258,44 +262,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -490,159 +502,159 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
     </row>
